--- a/clinical_features_synonym.xlsx
+++ b/clinical_features_synonym.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究课题\国家实验室_胸外科\11.major_revison\R2.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究课题\国家实验室_胸外科\7_完整流程\6_疾病分类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3FCF63-2CBB-49FC-A6E1-B788BDE65838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE05D775-794D-4AB1-BA00-9901F154932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -2356,17 +2356,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213A4349-A6B9-4DEF-AF13-F9D500C0BB8D}">
   <dimension ref="A1:B253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A101" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="100.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>247</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>248</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="76.8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>333</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>349</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>330</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>118</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>121</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>225</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="405" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>461</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="81" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="76.8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>472</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>460</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>223</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>133</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>252</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>249</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>19</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>131</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>332</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>416</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>24</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>236</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>25</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>26</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>28</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>29</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="81" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="76.8" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>30</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>31</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>135</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>439</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>33</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>35</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>37</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>214</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>139</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>38</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>319</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>138</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>334</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>106</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>197</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>39</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>40</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="101.25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="96" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>358</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>43</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>331</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>44</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>45</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>47</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>48</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>49</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>50</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>51</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>140</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>52</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>53</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>347</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>54</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>55</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>353</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>397</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>56</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>57</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>144</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>58</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="76.8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>148</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>59</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>445</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>233</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>235</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="81" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="76.8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>340</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>436</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>348</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>344</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>339</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>61</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>356</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>62</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>63</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>231</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>325</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>64</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>65</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>66</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>157</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>158</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="81" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" ht="76.8" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>159</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="81" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" ht="76.8" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>328</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>338</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>372</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>327</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>357</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>337</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>471</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>329</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>67</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>161</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>160</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>163</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>232</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>68</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>69</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>70</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>166</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>167</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>71</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>73</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>74</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>75</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>76</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>77</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>172</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>78</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>79</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>80</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>81</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>82</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>83</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A147" s="3" t="s">
         <v>84</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>85</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>86</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>175</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>176</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>178</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>88</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>335</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>89</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>90</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="38.4" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>91</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="60.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>234</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>92</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>93</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>95</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A162" s="3" t="s">
         <v>151</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>96</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A164" s="3" t="s">
         <v>226</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A165" s="3" t="s">
         <v>97</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>99</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>100</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A168" s="3" t="s">
         <v>101</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>227</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>228</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>104</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A172" s="3" t="s">
         <v>105</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A173" s="3" t="s">
         <v>242</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A174" s="3" t="s">
         <v>107</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>108</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>230</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>110</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>111</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A179" s="3" t="s">
         <v>326</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>229</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>112</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>113</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>114</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>116</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>215</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A186" s="3" t="s">
         <v>195</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A187" s="3" t="s">
         <v>462</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A188" s="3" t="s">
         <v>117</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>123</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>124</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
         <v>198</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="344.25" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" ht="345.6" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>200</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>201</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>389</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>204</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>206</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>208</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>210</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>211</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>212</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="141.75" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="153.6" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>341</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>440</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>213</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>466</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>217</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>219</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>373</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>221</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>239</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>244</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>265</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>254</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>253</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>256</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>258</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>259</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>261</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>260</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>264</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>266</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>279</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>271</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>285</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>277</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>268</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>269</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>270</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>282</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>278</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>274</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>275</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>276</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>287</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>289</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="60.75" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>290</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>291</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>293</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>308</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>295</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>297</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>298</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>310</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>299</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>300</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>302</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>304</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>309</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>313</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>314</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" ht="38.4" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>317</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>424</v>
       </c>
